--- a/BancosDatos/IDUSER.xlsx
+++ b/BancosDatos/IDUSER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mis Cosas\Posgrados\Doctorado Upitta\Proyectos\Proyectos\BancosDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C361BF85-DA38-4094-8FF0-1A0EA6953AB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5788EB-4C4F-438A-8B0C-B6428E0A756F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,7 +348,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -360,7 +360,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/BancosDatos/IDUSER.xlsx
+++ b/BancosDatos/IDUSER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mis Cosas\Posgrados\Doctorado Upitta\Proyectos\Proyectos\BancosDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5788EB-4C4F-438A-8B0C-B6428E0A756F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66E25AC-A1A2-4E28-997F-29FA6BB57379}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,7 +360,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/BancosDatos/IDUSER.xlsx
+++ b/BancosDatos/IDUSER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mis Cosas\Posgrados\Doctorado Upitta\Proyectos\Proyectos\BancosDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66E25AC-A1A2-4E28-997F-29FA6BB57379}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F002F9-4FDD-4B1F-9EBC-8B9E13EDF78D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,7 +360,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/BancosDatos/IDUSER.xlsx
+++ b/BancosDatos/IDUSER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mis Cosas\Posgrados\Doctorado Upitta\Proyectos\Proyectos\BancosDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F002F9-4FDD-4B1F-9EBC-8B9E13EDF78D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729DE10B-09A8-4F66-B430-94785311CC08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,7 +360,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/BancosDatos/IDUSER.xlsx
+++ b/BancosDatos/IDUSER.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mis Cosas\Posgrados\Doctorado Upitta\Proyectos\Proyectos\BancosDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729DE10B-09A8-4F66-B430-94785311CC08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D9AE22-7F7F-4818-901B-56950F7D7C75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,7 +360,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
